--- a/Queries/Estadísticas.xlsx
+++ b/Queries/Estadísticas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estudio\UVG\2024\Primer semestre\Bases de Datos 1\Proyectos\Proyecto 1\ApuestasEnFutbol\Queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B5E849-4CC2-4358-B1E6-11074E62ED5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9064B00B-B4FD-4087-9CE8-575EEA6A2196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{A27B5391-6D4E-44EB-80CD-7D806C929160}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="6" xr2:uid="{A27B5391-6D4E-44EB-80CD-7D806C929160}"/>
   </bookViews>
   <sheets>
     <sheet name="Apuestas - B365" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Apuestas - B365'!$A$1:$F$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Equipos Candidatos'!$C$1:$E$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="45">
   <si>
     <t>Liga</t>
   </si>
@@ -178,6 +179,9 @@
   <si>
     <t>Criterio apuestas</t>
   </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
 </sst>
 </file>
 
@@ -192,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -212,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -221,6 +231,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1201,6 +1212,2218 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apuestas - BW'!$U$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Apuestas - BW'!$S$8:$T$17</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chelsea</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Arsenal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Liverpool</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manchester City</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Roma</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Juventus</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Napoli</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Bayern Munich</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Paris Saint Germain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BD</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>L1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apuestas - BW'!$U$8:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-70EC-4828-8521-29A771B0C4A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1896587040"/>
+        <c:axId val="1752924896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1896587040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Equipos en diferente ligas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1752924896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1752924896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Presencia del equipo como probabilidad máxima en liga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1896587040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr">
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apuestas - IW'!$T$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Apuestas - IW'!$R$29:$S$40</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chelsea</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Arsenal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Liverpool</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manchester City</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Roma</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Juventus</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Napoli</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Atalanta</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bayern Munich</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Real Madrid</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Paris Saint Germain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BD</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>L1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apuestas - IW'!$T$29:$T$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-619D-49CC-8DD8-94AA4B8A3514}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="14267424"/>
+        <c:axId val="1086038352"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14267424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Equipos en diferente ligas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086038352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1086038352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Presencia del equipo como probabilidad máxima en liga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14267424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apuestas - PS'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Apuestas - PS'!$R$2:$S$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Arsenal</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Manchester City</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Juventus</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Napoli</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Atalanta</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Bayern Munich</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Paris Saint Germain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>BD</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>L1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apuestas - PS'!$T$2:$T$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-204F-484D-B536-0C2DFCF0BEA8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="14255424"/>
+        <c:axId val="12572016"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14255424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Equipos en diferente ligas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="12572016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="12572016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Presencia del equipo como probabilidad máxima en liga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14255424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr algn="ctr" rtl="0">
+        <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apuestas - WH'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Apuestas - WH'!$Q$2:$R$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Chelsea</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Arsenal</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Liverpool</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Manchester City</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Roma</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Juventus</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Napoli</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Atalanta</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bayern Munich</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Real Madrid</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Paris Saint Germain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BD</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>L1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apuestas - WH'!$S$2:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D8FE-4955-A65A-1EBD39E99EC0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="14244864"/>
+        <c:axId val="1086028432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="14244864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Equipos en diferente ligas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1086028432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1086028432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Presencia del equipo como probabilidad máxima en liga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="14244864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Apuestas - VC'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Participación</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Apuestas - VC'!$S$2:$T$12</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="11"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Arsenal</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Liverpool</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Manchester City</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Roma</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Juventus</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Napoli</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Atalanta</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Bayern Munich</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Barcelona</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Real Madrid</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Paris Saint Germain</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PL</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>SA</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>BD</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>LL</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>L1</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Apuestas - VC'!$U$2:$U$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9502-4F49-8E8F-941D31EEAF32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1894357376"/>
+        <c:axId val="1653827760"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1894357376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Equipos en diferente ligas</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1653827760"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1653827760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-GT" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>Presencia del equipo como probabilidad máxima en liga</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-GT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1894357376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Aptos Display" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          <a:ea typeface="+mn-ea"/>
+          <a:cs typeface="+mn-cs"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1281,6 +3504,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1785,6 +4208,2531 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2358,6 +7306,211 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>555306</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>79057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9166267-7C69-163D-3DDE-F9F481787DB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>351472</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>153352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>910590</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1905</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75AB9941-E097-8F7E-97F2-D8BB9569137A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>951</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>122872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0FA6941-F81D-29CD-E4C9-A3E0C9CE791D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>903922</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>92392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D81B122-C2C2-C708-C6A3-EB4F2F15E071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>645795</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8572</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>394334</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>44767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BB387BA-5FE1-EE02-6DBA-CC60C058E080}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2685,8 +7838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6528ED64-6C12-4B2D-9ABD-08906066B8E9}">
   <dimension ref="A1:Y49"/>
   <sheetViews>
-    <sheetView topLeftCell="K16" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView topLeftCell="F28" zoomScale="98" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K33" sqref="K33:M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3894,13 +9047,13 @@
       <c r="F41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K41" t="s">
+      <c r="K41" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L41" t="s">
+      <c r="L41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="4">
         <v>11</v>
       </c>
       <c r="S41" t="s">
@@ -4008,13 +9161,13 @@
       <c r="F44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K44" t="s">
+      <c r="K44" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L44" t="s">
+      <c r="L44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="4">
         <v>9</v>
       </c>
       <c r="S44" t="s">
@@ -4137,16 +9290,1119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE3E047-E88F-47F1-8E09-0215987B8919}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="E21" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43:M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C2" s="1">
+        <v>88</v>
+      </c>
+      <c r="D2" s="1">
+        <v>92</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C3" s="1">
+        <v>80</v>
+      </c>
+      <c r="D3" s="1">
+        <v>91</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C4" s="1">
+        <v>80</v>
+      </c>
+      <c r="D4" s="1">
+        <v>202</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C5" s="1">
+        <v>88</v>
+      </c>
+      <c r="D5" s="1">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.84745762711864403</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C6" s="1">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1">
+        <v>71</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C7" s="1">
+        <v>83</v>
+      </c>
+      <c r="D7" s="1">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.91743119266054995</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C8" s="1">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1">
+        <v>219</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.934579439252336</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="1">
+        <v>87</v>
+      </c>
+      <c r="D9" s="1">
+        <v>219</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="S9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C10" s="1">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="S10" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C11" s="1">
+        <v>88</v>
+      </c>
+      <c r="D11" s="1">
+        <v>76</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C12" s="1">
+        <v>98</v>
+      </c>
+      <c r="D12" s="1">
+        <v>203</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s">
+        <v>37</v>
+      </c>
+      <c r="T12" t="s">
+        <v>27</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C13" s="1">
+        <v>105</v>
+      </c>
+      <c r="D13" s="1">
+        <v>112</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s">
+        <v>37</v>
+      </c>
+      <c r="T13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C14" s="1">
+        <v>95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>101</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.94339622641509402</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="S14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T14" t="s">
+        <v>26</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C15" s="1">
+        <v>98</v>
+      </c>
+      <c r="D15" s="1">
+        <v>222</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="4">
+        <v>9</v>
+      </c>
+      <c r="S15" t="s">
+        <v>38</v>
+      </c>
+      <c r="T15" t="s">
+        <v>14</v>
+      </c>
+      <c r="U15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C16" s="1">
+        <v>98</v>
+      </c>
+      <c r="D16" s="1">
+        <v>109</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.91743119266054995</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="4">
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>39</v>
+      </c>
+      <c r="T16" t="s">
+        <v>7</v>
+      </c>
+      <c r="U16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C17" s="1">
+        <v>98</v>
+      </c>
+      <c r="D17" s="1">
+        <v>243</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.87719298245613997</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="4">
+        <v>8</v>
+      </c>
+      <c r="S17" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" t="s">
+        <v>12</v>
+      </c>
+      <c r="U17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="1">
+        <v>98</v>
+      </c>
+      <c r="D18" s="1">
+        <v>115</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.86206896551724099</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="1">
+        <v>117</v>
+      </c>
+      <c r="D19" s="1">
+        <v>135</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C20" s="1">
+        <v>117</v>
+      </c>
+      <c r="D20" s="1">
+        <v>126</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="1">
+        <v>117</v>
+      </c>
+      <c r="D21" s="1">
+        <v>127</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C22" s="1">
+        <v>117</v>
+      </c>
+      <c r="D22" s="1">
+        <v>127</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.94339622641509402</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C23" s="1">
+        <v>117</v>
+      </c>
+      <c r="D23" s="1">
+        <v>135</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.934579439252336</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C24" s="1">
+        <v>117</v>
+      </c>
+      <c r="D24" s="1">
+        <v>128</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C25" s="1">
+        <v>117</v>
+      </c>
+      <c r="D25" s="1">
+        <v>205</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.94339622641509402</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C26" s="1">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1">
+        <v>233</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.94339622641509402</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C27" s="1">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1">
+        <v>124</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.90090090090090003</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="1">
+        <v>148</v>
+      </c>
+      <c r="D28" s="1">
+        <v>208</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="1">
+        <v>148</v>
+      </c>
+      <c r="D29" s="1">
+        <v>142</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="1">
+        <v>148</v>
+      </c>
+      <c r="D30" s="1">
+        <v>151</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>4</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C31" s="1">
+        <v>148</v>
+      </c>
+      <c r="D31" s="1">
+        <v>141</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C32" s="1">
+        <v>148</v>
+      </c>
+      <c r="D32" s="1">
+        <v>157</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.970873786407767</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C33" s="1">
+        <v>148</v>
+      </c>
+      <c r="D33" s="1">
+        <v>151</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>4</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C34" s="1">
+        <v>148</v>
+      </c>
+      <c r="D34" s="1">
+        <v>232</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.94339622641509402</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C35" s="1">
+        <v>148</v>
+      </c>
+      <c r="D35" s="1">
+        <v>239</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>4</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="1">
+        <v>148</v>
+      </c>
+      <c r="D36" s="1">
+        <v>231</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.88495575221238898</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>5</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2014</v>
+      </c>
+      <c r="C37" s="1">
+        <v>161</v>
+      </c>
+      <c r="D37" s="1">
+        <v>177</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0.89285714285714202</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C38" s="1">
+        <v>161</v>
+      </c>
+      <c r="D38" s="1">
+        <v>172</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0.90909090909090895</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2016</v>
+      </c>
+      <c r="C39" s="1">
+        <v>161</v>
+      </c>
+      <c r="D39" s="1">
+        <v>162</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.90090090090090003</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2017</v>
+      </c>
+      <c r="C40" s="1">
+        <v>161</v>
+      </c>
+      <c r="D40" s="1">
+        <v>172</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0.96153846153846101</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>5</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="1">
+        <v>161</v>
+      </c>
+      <c r="D41" s="1">
+        <v>169</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>5</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2018</v>
+      </c>
+      <c r="C42" s="1">
+        <v>161</v>
+      </c>
+      <c r="D42" s="1">
+        <v>167</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0.92592592592592504</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>5</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2019</v>
+      </c>
+      <c r="C43" s="1">
+        <v>161</v>
+      </c>
+      <c r="D43" s="1">
+        <v>224</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.934579439252336</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>5</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C44" s="1">
+        <v>161</v>
+      </c>
+      <c r="D44" s="1">
+        <v>181</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0.952380952380952</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77228537-9DF5-4D78-A13F-9081C6D8FE75}">
+  <dimension ref="A1:T65"/>
+  <sheetViews>
+    <sheetView topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65:L71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -4170,901 +10426,6 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C2" s="1">
-        <v>88</v>
-      </c>
-      <c r="D2" s="1">
-        <v>92</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.84745762711864403</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C3" s="1">
-        <v>80</v>
-      </c>
-      <c r="D3" s="1">
-        <v>91</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.84745762711864403</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C4" s="1">
-        <v>80</v>
-      </c>
-      <c r="D4" s="1">
-        <v>202</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.84745762711864403</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C5" s="1">
-        <v>88</v>
-      </c>
-      <c r="D5" s="1">
-        <v>85</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.84745762711864403</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C6" s="1">
-        <v>83</v>
-      </c>
-      <c r="D6" s="1">
-        <v>71</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.86206896551724099</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C7" s="1">
-        <v>83</v>
-      </c>
-      <c r="D7" s="1">
-        <v>77</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.91743119266054995</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C8" s="1">
-        <v>88</v>
-      </c>
-      <c r="D8" s="1">
-        <v>219</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.934579439252336</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C9" s="1">
-        <v>87</v>
-      </c>
-      <c r="D9" s="1">
-        <v>219</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C10" s="1">
-        <v>88</v>
-      </c>
-      <c r="D10" s="1">
-        <v>79</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>1</v>
-      </c>
-      <c r="B11" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C11" s="1">
-        <v>88</v>
-      </c>
-      <c r="D11" s="1">
-        <v>76</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>2</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C12" s="1">
-        <v>98</v>
-      </c>
-      <c r="D12" s="1">
-        <v>203</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.89285714285714202</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C13" s="1">
-        <v>105</v>
-      </c>
-      <c r="D13" s="1">
-        <v>112</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.92592592592592504</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C14" s="1">
-        <v>95</v>
-      </c>
-      <c r="D14" s="1">
-        <v>101</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.94339622641509402</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C15" s="1">
-        <v>98</v>
-      </c>
-      <c r="D15" s="1">
-        <v>222</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C16" s="1">
-        <v>98</v>
-      </c>
-      <c r="D16" s="1">
-        <v>109</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.91743119266054995</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>2</v>
-      </c>
-      <c r="B17" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C17" s="1">
-        <v>98</v>
-      </c>
-      <c r="D17" s="1">
-        <v>243</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.87719298245613997</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="1">
-        <v>98</v>
-      </c>
-      <c r="D18" s="1">
-        <v>115</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.86206896551724099</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>3</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C19" s="1">
-        <v>117</v>
-      </c>
-      <c r="D19" s="1">
-        <v>135</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>3</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C20" s="1">
-        <v>117</v>
-      </c>
-      <c r="D20" s="1">
-        <v>126</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.92592592592592504</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C21" s="1">
-        <v>117</v>
-      </c>
-      <c r="D21" s="1">
-        <v>127</v>
-      </c>
-      <c r="E21" s="1">
-        <v>0.92592592592592504</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>3</v>
-      </c>
-      <c r="B22" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C22" s="1">
-        <v>117</v>
-      </c>
-      <c r="D22" s="1">
-        <v>127</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0.94339622641509402</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
-        <v>3</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C23" s="1">
-        <v>117</v>
-      </c>
-      <c r="D23" s="1">
-        <v>135</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0.934579439252336</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
-        <v>3</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C24" s="1">
-        <v>117</v>
-      </c>
-      <c r="D24" s="1">
-        <v>128</v>
-      </c>
-      <c r="E24" s="1">
-        <v>0.970873786407767</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
-        <v>3</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C25" s="1">
-        <v>117</v>
-      </c>
-      <c r="D25" s="1">
-        <v>205</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.94339622641509402</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C26" s="1">
-        <v>117</v>
-      </c>
-      <c r="D26" s="1">
-        <v>233</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.94339622641509402</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
-        <v>3</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C27" s="1">
-        <v>117</v>
-      </c>
-      <c r="D27" s="1">
-        <v>124</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.90090090090090003</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>4</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C28" s="1">
-        <v>148</v>
-      </c>
-      <c r="D28" s="1">
-        <v>208</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>4</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C29" s="1">
-        <v>148</v>
-      </c>
-      <c r="D29" s="1">
-        <v>142</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
-        <v>4</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C30" s="1">
-        <v>148</v>
-      </c>
-      <c r="D30" s="1">
-        <v>151</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
-        <v>4</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C31" s="1">
-        <v>148</v>
-      </c>
-      <c r="D31" s="1">
-        <v>141</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.970873786407767</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>4</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C32" s="1">
-        <v>148</v>
-      </c>
-      <c r="D32" s="1">
-        <v>157</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.970873786407767</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>4</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C33" s="1">
-        <v>148</v>
-      </c>
-      <c r="D33" s="1">
-        <v>151</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>4</v>
-      </c>
-      <c r="B34" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C34" s="1">
-        <v>148</v>
-      </c>
-      <c r="D34" s="1">
-        <v>232</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.94339622641509402</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C35" s="1">
-        <v>148</v>
-      </c>
-      <c r="D35" s="1">
-        <v>239</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.89285714285714202</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
-        <v>4</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C36" s="1">
-        <v>148</v>
-      </c>
-      <c r="D36" s="1">
-        <v>231</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.88495575221238898</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
-        <v>5</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2014</v>
-      </c>
-      <c r="C37" s="1">
-        <v>161</v>
-      </c>
-      <c r="D37" s="1">
-        <v>177</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.89285714285714202</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
-        <v>5</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2015</v>
-      </c>
-      <c r="C38" s="1">
-        <v>161</v>
-      </c>
-      <c r="D38" s="1">
-        <v>172</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
-        <v>5</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2016</v>
-      </c>
-      <c r="C39" s="1">
-        <v>161</v>
-      </c>
-      <c r="D39" s="1">
-        <v>162</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.90090090090090003</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="1">
-        <v>5</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2017</v>
-      </c>
-      <c r="C40" s="1">
-        <v>161</v>
-      </c>
-      <c r="D40" s="1">
-        <v>172</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.96153846153846101</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="1">
-        <v>5</v>
-      </c>
-      <c r="B41" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C41" s="1">
-        <v>161</v>
-      </c>
-      <c r="D41" s="1">
-        <v>169</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.92592592592592504</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="1">
-        <v>5</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2018</v>
-      </c>
-      <c r="C42" s="1">
-        <v>161</v>
-      </c>
-      <c r="D42" s="1">
-        <v>167</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.92592592592592504</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="1">
-        <v>5</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2019</v>
-      </c>
-      <c r="C43" s="1">
-        <v>161</v>
-      </c>
-      <c r="D43" s="1">
-        <v>224</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.934579439252336</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="1">
-        <v>5</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C44" s="1">
-        <v>161</v>
-      </c>
-      <c r="D44" s="1">
-        <v>181</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.952380952380952</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77228537-9DF5-4D78-A13F-9081C6D8FE75}">
-  <dimension ref="A1:F65"/>
-  <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5364,7 +10725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -5384,7 +10745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2</v>
       </c>
@@ -5404,7 +10765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2</v>
       </c>
@@ -5424,7 +10785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2</v>
       </c>
@@ -5444,7 +10805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2</v>
       </c>
@@ -5464,7 +10825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2</v>
       </c>
@@ -5484,7 +10845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2</v>
       </c>
@@ -5504,7 +10865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2</v>
       </c>
@@ -5524,7 +10885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -5544,7 +10905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -5564,7 +10925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>3</v>
       </c>
@@ -5584,7 +10945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -5603,8 +10964,26 @@
       <c r="F28" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+      <c r="K28" t="s">
+        <v>18</v>
+      </c>
+      <c r="L28" t="s">
+        <v>35</v>
+      </c>
+      <c r="R28" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" t="s">
+        <v>18</v>
+      </c>
+      <c r="T28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -5623,8 +11002,26 @@
       <c r="F29" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+      <c r="R29" t="s">
+        <v>36</v>
+      </c>
+      <c r="S29" t="s">
+        <v>24</v>
+      </c>
+      <c r="T29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -5643,8 +11040,26 @@
       <c r="F30" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J30" t="s">
+        <v>30</v>
+      </c>
+      <c r="K30" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="R30" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" t="s">
+        <v>23</v>
+      </c>
+      <c r="T30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>3</v>
       </c>
@@ -5663,8 +11078,26 @@
       <c r="F31" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J31" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="R31" t="s">
+        <v>36</v>
+      </c>
+      <c r="S31" t="s">
+        <v>44</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>3</v>
       </c>
@@ -5683,8 +11116,26 @@
       <c r="F32" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J32" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32">
+        <v>9</v>
+      </c>
+      <c r="R32" t="s">
+        <v>36</v>
+      </c>
+      <c r="S32" t="s">
+        <v>22</v>
+      </c>
+      <c r="T32">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>3</v>
       </c>
@@ -5703,8 +11154,26 @@
       <c r="F33" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J33" t="s">
+        <v>31</v>
+      </c>
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="R33" t="s">
+        <v>37</v>
+      </c>
+      <c r="S33" t="s">
+        <v>27</v>
+      </c>
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>3</v>
       </c>
@@ -5723,8 +11192,26 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="K34" t="s">
+        <v>25</v>
+      </c>
+      <c r="L34">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s">
+        <v>37</v>
+      </c>
+      <c r="S34" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -5743,8 +11230,26 @@
       <c r="F35" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J35" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s">
+        <v>37</v>
+      </c>
+      <c r="S35" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>4</v>
       </c>
@@ -5763,8 +11268,26 @@
       <c r="F36" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J36" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="R36" t="s">
+        <v>37</v>
+      </c>
+      <c r="S36" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>4</v>
       </c>
@@ -5783,8 +11306,26 @@
       <c r="F37" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" s="4">
+        <v>8</v>
+      </c>
+      <c r="R37" t="s">
+        <v>38</v>
+      </c>
+      <c r="S37" t="s">
+        <v>14</v>
+      </c>
+      <c r="T37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>4</v>
       </c>
@@ -5803,8 +11344,26 @@
       <c r="F38" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" t="s">
+        <v>7</v>
+      </c>
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="R38" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s">
+        <v>7</v>
+      </c>
+      <c r="T38">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -5823,8 +11382,26 @@
       <c r="F39" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>29</v>
+      </c>
+      <c r="L39">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>4</v>
       </c>
@@ -5843,8 +11420,26 @@
       <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L40" s="4">
+        <v>14</v>
+      </c>
+      <c r="R40" t="s">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>4</v>
       </c>
@@ -5864,7 +11459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>4</v>
       </c>
@@ -5884,7 +11479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>4</v>
       </c>
@@ -5904,7 +11499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>4</v>
       </c>
@@ -5924,7 +11519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>4</v>
       </c>
@@ -5944,7 +11539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>4</v>
       </c>
@@ -5964,7 +11559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>4</v>
       </c>
@@ -5984,7 +11579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>4</v>
       </c>
@@ -6346,20 +11941,27 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EA2437D-7E5B-4AD0-BB92-77876D3546B8}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="E19" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32:L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -6378,8 +11980,26 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6398,8 +12018,26 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -6418,8 +12056,26 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="T3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6438,8 +12094,26 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="R4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -6458,8 +12132,26 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -6478,8 +12170,26 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="R6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" t="s">
+        <v>28</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -6498,8 +12208,26 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="4">
+        <v>9</v>
+      </c>
+      <c r="R7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -6518,8 +12246,26 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="4">
+        <v>9</v>
+      </c>
+      <c r="R8" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -6538,8 +12284,26 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="4">
+        <v>8</v>
+      </c>
+      <c r="R9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" t="s">
+        <v>12</v>
+      </c>
+      <c r="T9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -6559,7 +12323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -6579,7 +12343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -6599,7 +12363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -6619,7 +12383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -6639,7 +12403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -6659,7 +12423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -7221,20 +12985,28 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD772EA-D357-429A-B106-2032D07207C1}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36:K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7253,8 +13025,26 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7273,8 +13063,26 @@
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7293,8 +13101,26 @@
       <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -7313,8 +13139,26 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -7333,8 +13177,26 @@
       <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -7353,8 +13215,26 @@
       <c r="F6" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -7373,8 +13253,26 @@
       <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -7393,8 +13291,26 @@
       <c r="F8" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -7413,8 +13329,26 @@
       <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -7433,8 +13367,26 @@
       <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>38</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -7453,8 +13405,26 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" t="s">
+        <v>7</v>
+      </c>
+      <c r="S11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -7473,8 +13443,26 @@
       <c r="F12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" t="s">
+        <v>29</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -7493,8 +13481,26 @@
       <c r="F13" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="4">
+        <v>11</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -7514,7 +13520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -7534,7 +13540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -8396,20 +14402,26 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84A3ABE-E901-4B2E-9F14-75403A3CD707}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:U49"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3:R11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="11" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -8428,8 +14440,26 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -8448,8 +14478,26 @@
       <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -8468,8 +14516,26 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8488,8 +14554,26 @@
       <c r="F4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -8508,8 +14592,26 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" t="s">
+        <v>27</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -8528,8 +14630,26 @@
       <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>37</v>
+      </c>
+      <c r="T6" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -8548,8 +14668,26 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -8568,8 +14706,26 @@
       <c r="F8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -8588,8 +14744,26 @@
       <c r="F9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="4">
+        <v>10</v>
+      </c>
+      <c r="S9" t="s">
+        <v>38</v>
+      </c>
+      <c r="T9" t="s">
+        <v>14</v>
+      </c>
+      <c r="U9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2</v>
       </c>
@@ -8608,8 +14782,26 @@
       <c r="F10" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="S10" t="s">
+        <v>39</v>
+      </c>
+      <c r="T10" t="s">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2</v>
       </c>
@@ -8628,8 +14820,26 @@
       <c r="F11" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>39</v>
+      </c>
+      <c r="T11" t="s">
+        <v>29</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -8648,8 +14858,26 @@
       <c r="F12" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="K12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M12" s="4">
+        <v>9</v>
+      </c>
+      <c r="S12" t="s">
+        <v>40</v>
+      </c>
+      <c r="T12" t="s">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -8669,7 +14897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2</v>
       </c>
@@ -8689,7 +14917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2</v>
       </c>
@@ -8709,7 +14937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -9391,19 +15619,334 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855DDBD4-2E4A-408F-8806-ACABF9A0269D}">
-  <dimension ref="A1"/>
+  <dimension ref="C1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="149" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:E1" xr:uid="{855DDBD4-2E4A-408F-8806-ACABF9A0269D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:E15">
+      <sortCondition descending="1" ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>